--- a/biology/Zoologie/Grande_Graminicole/Grande_Graminicole.xlsx
+++ b/biology/Zoologie/Grande_Graminicole/Grande_Graminicole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graminicola bengalensis
 La Grande Graminicole (Graminicola bengalensis) est une espèce de passereaux de la famille des Pellorneidae. Elle a auparavant été classée dans les familles des Sylviidae puis des Timaliidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au Bangladesh, Birmanie, Chine, Hong Kong, Inde, Népal, Thaïlande et Vietnam.
 Elle est menacée par la perte de son habitat.
@@ -544,7 +558,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">G. b. striatus et G. b. sinicus étaient considérées auparavant comme ses sous-espèces. Mais depuis la version 2.11 de la classification de référence du Congrès ornithologique international, G. b. striatus est traitée comme une espèce à part entière, Graminicola striatus, et G. b. sinicus comme sa sous-espèce.
 </t>
